--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3448153.223314662</v>
+        <v>3445290.754214536</v>
       </c>
     </row>
     <row r="7">
@@ -668,46 +668,46 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>22.37892513348061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40.36809222617124</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.097100052852174</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>44.46519227902341</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>44.46519227902342</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,64 +823,64 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="U4" t="n">
+        <v>8.386866521745233</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8.386866521745233</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -914,43 +914,43 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>32.22184835001295</v>
+      </c>
+      <c r="U5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="S5" t="n">
-        <v>25.3458026083015</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,55 +972,55 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>53.79631798062264</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>47.38379687733241</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1063,55 +1063,55 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>52.6063073409206</v>
+        <v>13.74224000600998</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>170.1331892653139</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>170.1331892653139</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>142.9772673631769</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>142.9772673631773</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>170.1331892653139</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1331892653139</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.36049712271166</v>
       </c>
       <c r="S9" t="n">
-        <v>156.7854795015661</v>
+        <v>103.0928215976242</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>170.1331892653139</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="V9" t="n">
-        <v>163.2010228686361</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.1331892653139</v>
+        <v>143.0702580230136</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.938828341115941</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.31856917756</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.85685983116014</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>147.0593845160293</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>159.979691285148</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>100.5140508960356</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>130.3963959210117</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2053,19 +2053,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>112.1382188876854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701398</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>110.9396563989393</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.63412424768211</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>190.3063245427914</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>206.5509998577711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>78.89395497654104</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4186,13 +4186,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>223.3486291137924</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="C2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="E2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="F2" t="n">
-        <v>48.95295437098331</v>
+        <v>42.00745362177985</v>
       </c>
       <c r="G2" t="n">
-        <v>8.177103637477007</v>
+        <v>26.64359361790977</v>
       </c>
       <c r="H2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I2" t="n">
-        <v>8.177103637477007</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J2" t="n">
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>4.038618735606123</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="L2" t="n">
-        <v>4.038618735606123</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="M2" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="N2" t="n">
-        <v>103.9944324418577</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O2" t="n">
-        <v>153.9723392949834</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P2" t="n">
         <v>201.9309367803062</v>
@@ -4352,7 +4352,7 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S2" t="n">
         <v>150.9382759771985</v>
@@ -4364,16 +4364,16 @@
         <v>99.94561517409093</v>
       </c>
       <c r="V2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="W2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="X2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>4.038618735606123</v>
       </c>
       <c r="J3" t="n">
-        <v>7.929436376304878</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
-        <v>57.90734322943065</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L3" t="n">
-        <v>57.90734322943065</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M3" t="n">
-        <v>57.90734322943065</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="N3" t="n">
-        <v>57.90734322943065</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
-        <v>107.8852500825564</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="P3" t="n">
-        <v>157.8631569356822</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="Q3" t="n">
         <v>201.9309367803062</v>
@@ -4440,16 +4440,16 @@
         <v>150.9382759771985</v>
       </c>
       <c r="U3" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="V3" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W3" t="n">
-        <v>55.03127953871374</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="X3" t="n">
-        <v>55.03127953871374</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="Y3" t="n">
         <v>55.03127953871374</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0239403418214</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C4" t="n">
-        <v>106.0239403418214</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D4" t="n">
-        <v>106.0239403418214</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E4" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F4" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G4" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H4" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I4" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J4" t="n">
         <v>4.038618735606123</v>
@@ -4507,7 +4507,7 @@
         <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>114.4955226870186</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
         <v>114.4955226870186</v>
@@ -4516,22 +4516,22 @@
         <v>114.4955226870186</v>
       </c>
       <c r="T4" t="n">
-        <v>114.4955226870186</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="U4" t="n">
-        <v>114.4955226870186</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="V4" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="W4" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="X4" t="n">
-        <v>106.0239403418214</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="Y4" t="n">
-        <v>106.0239403418214</v>
+        <v>4.038618735606123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.90402084214027</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="C5" t="n">
-        <v>80.90402084214027</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="D5" t="n">
-        <v>80.90402084214027</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="E5" t="n">
-        <v>80.90402084214027</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="F5" t="n">
-        <v>73.95852009293679</v>
+        <v>19.61880496099473</v>
       </c>
       <c r="G5" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H5" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4568,19 +4568,19 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
+        <v>4.303705438449811</v>
+      </c>
+      <c r="L5" t="n">
         <v>57.56206023926622</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>108.6685623208577</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>108.6685623208577</v>
+      </c>
+      <c r="O5" t="n">
         <v>161.9269171216741</v>
-      </c>
-      <c r="N5" t="n">
-        <v>215.1852719224906</v>
-      </c>
-      <c r="O5" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
         <v>215.1852719224906</v>
@@ -4589,28 +4589,28 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S5" t="n">
-        <v>135.2437359740823</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T5" t="n">
-        <v>135.2437359740823</v>
+        <v>182.6379503568209</v>
       </c>
       <c r="U5" t="n">
-        <v>135.2437359740823</v>
+        <v>128.2982352248789</v>
       </c>
       <c r="V5" t="n">
-        <v>135.2437359740823</v>
+        <v>128.2982352248789</v>
       </c>
       <c r="W5" t="n">
-        <v>80.90402084214027</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="X5" t="n">
-        <v>80.90402084214027</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="Y5" t="n">
-        <v>80.90402084214027</v>
+        <v>73.95852009293679</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H6" t="n">
         <v>4.303705438449811</v>
@@ -4644,16 +4644,16 @@
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="L6" t="n">
-        <v>57.56206023926622</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56206023926622</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="N6" t="n">
         <v>108.6685623208577</v>
@@ -4662,34 +4662,34 @@
         <v>161.9269171216741</v>
       </c>
       <c r="P6" t="n">
-        <v>215.1852719224906</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="S6" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="T6" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="U6" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="V6" t="n">
-        <v>112.9831357023339</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="W6" t="n">
-        <v>112.9831357023339</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="X6" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="C7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="D7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="E7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="F7" t="n">
-        <v>73.72650203070704</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G7" t="n">
-        <v>19.38678689876497</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H7" t="n">
-        <v>19.38678689876497</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I7" t="n">
-        <v>19.38678689876497</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="J7" t="n">
-        <v>19.38678689876497</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="K7" t="n">
         <v>4.303705438449811</v>
@@ -4744,31 +4744,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="V7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="W7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="X7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.8641862134551</v>
+        <v>18.18475594957101</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>508.6810507326555</v>
+        <v>192.4078622190289</v>
       </c>
       <c r="C8" t="n">
-        <v>508.6810507326555</v>
+        <v>192.4078622190289</v>
       </c>
       <c r="D8" t="n">
-        <v>508.6810507326555</v>
+        <v>192.4078622190289</v>
       </c>
       <c r="E8" t="n">
-        <v>336.8293444040556</v>
+        <v>192.4078622190289</v>
       </c>
       <c r="F8" t="n">
-        <v>329.8838436548522</v>
+        <v>185.4623614698255</v>
       </c>
       <c r="G8" t="n">
-        <v>158.0321373262523</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="H8" t="n">
-        <v>158.0321373262523</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="J8" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="K8" t="n">
-        <v>13.61065514122511</v>
+        <v>138.5149267953223</v>
       </c>
       <c r="L8" t="n">
-        <v>14.39342963784204</v>
+        <v>306.9467841679835</v>
       </c>
       <c r="M8" t="n">
-        <v>182.8252870105028</v>
+        <v>339.4872090640707</v>
       </c>
       <c r="N8" t="n">
-        <v>351.2571443831634</v>
+        <v>507.9190664367318</v>
       </c>
       <c r="O8" t="n">
-        <v>373.5027670392477</v>
+        <v>530.1646890928168</v>
       </c>
       <c r="P8" t="n">
-        <v>541.9346244119083</v>
+        <v>530.1646890928168</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612554</v>
+        <v>680.5327570612571</v>
       </c>
       <c r="R8" t="n">
-        <v>680.5327570612554</v>
+        <v>680.5327570612571</v>
       </c>
       <c r="S8" t="n">
-        <v>680.5327570612554</v>
+        <v>536.1112748762296</v>
       </c>
       <c r="T8" t="n">
-        <v>680.5327570612554</v>
+        <v>364.2595685476292</v>
       </c>
       <c r="U8" t="n">
-        <v>680.5327570612554</v>
+        <v>364.2595685476292</v>
       </c>
       <c r="V8" t="n">
-        <v>680.5327570612554</v>
+        <v>364.2595685476292</v>
       </c>
       <c r="W8" t="n">
-        <v>508.6810507326555</v>
+        <v>192.4078622190289</v>
       </c>
       <c r="X8" t="n">
-        <v>508.6810507326555</v>
+        <v>192.4078622190289</v>
       </c>
       <c r="Y8" t="n">
-        <v>508.6810507326555</v>
+        <v>192.4078622190289</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.462361469825</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="C9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="D9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="E9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="J9" t="n">
-        <v>87.88972643578371</v>
+        <v>87.88972643578398</v>
       </c>
       <c r="K9" t="n">
-        <v>87.88972643578371</v>
+        <v>87.88972643578398</v>
       </c>
       <c r="L9" t="n">
-        <v>256.3215838084444</v>
+        <v>123.1258775948564</v>
       </c>
       <c r="M9" t="n">
-        <v>387.866759351252</v>
+        <v>291.5577349675175</v>
       </c>
       <c r="N9" t="n">
-        <v>464.3518131915577</v>
+        <v>459.9895923401787</v>
       </c>
       <c r="O9" t="n">
-        <v>512.1008996885947</v>
+        <v>507.7386788372163</v>
       </c>
       <c r="P9" t="n">
-        <v>680.5327570612554</v>
+        <v>526.7284641416369</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612554</v>
+        <v>680.5327570612571</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612554</v>
+        <v>629.6635680484171</v>
       </c>
       <c r="S9" t="n">
-        <v>522.1635858475523</v>
+        <v>525.5294048184937</v>
       </c>
       <c r="T9" t="n">
-        <v>522.1635858475523</v>
+        <v>525.5294048184937</v>
       </c>
       <c r="U9" t="n">
-        <v>350.3118795189524</v>
+        <v>353.6776984898935</v>
       </c>
       <c r="V9" t="n">
-        <v>185.462361469825</v>
+        <v>353.6776984898935</v>
       </c>
       <c r="W9" t="n">
-        <v>185.462361469825</v>
+        <v>353.6776984898935</v>
       </c>
       <c r="X9" t="n">
-        <v>185.462361469825</v>
+        <v>181.8259921612932</v>
       </c>
       <c r="Y9" t="n">
-        <v>185.462361469825</v>
+        <v>181.8259921612932</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508.6810507326555</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="C10" t="n">
-        <v>339.7448678047487</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="D10" t="n">
-        <v>189.6282283924129</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="E10" t="n">
-        <v>189.6282283924129</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="F10" t="n">
-        <v>182.6193108761342</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122511</v>
+        <v>13.61065514122514</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724057981</v>
+        <v>68.90447724058009</v>
       </c>
       <c r="L10" t="n">
-        <v>195.187967134062</v>
+        <v>195.1879671340626</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694246</v>
+        <v>338.7253240694254</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004848</v>
+        <v>484.284299900486</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689135</v>
+        <v>602.715277968915</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612554</v>
+        <v>680.5327570612571</v>
       </c>
       <c r="Q10" t="n">
-        <v>680.5327570612554</v>
+        <v>650.374312787358</v>
       </c>
       <c r="R10" t="n">
-        <v>680.5327570612554</v>
+        <v>501.8294799428839</v>
       </c>
       <c r="S10" t="n">
-        <v>680.5327570612554</v>
+        <v>501.8294799428839</v>
       </c>
       <c r="T10" t="n">
-        <v>680.5327570612554</v>
+        <v>501.8294799428839</v>
       </c>
       <c r="U10" t="n">
-        <v>680.5327570612554</v>
+        <v>329.9777736142836</v>
       </c>
       <c r="V10" t="n">
-        <v>680.5327570612554</v>
+        <v>158.1260672856833</v>
       </c>
       <c r="W10" t="n">
-        <v>680.5327570612554</v>
+        <v>158.1260672856833</v>
       </c>
       <c r="X10" t="n">
-        <v>680.5327570612554</v>
+        <v>158.1260672856833</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.5327570612554</v>
+        <v>158.1260672856833</v>
       </c>
     </row>
     <row r="11">
@@ -5024,31 +5024,31 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.790206091931</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1237.37303605497</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1031.260321675049</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.908786505289</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,16 +5832,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,37 +6470,37 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944943</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F31" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,7 +6734,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6777,22 +6777,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944943</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>119.599202296584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,19 +7017,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,22 +7254,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7670,25 +7670,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,19 +7719,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5348780504995</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504995</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381638</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557706</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>944.1833428807392</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>256.7644825146879</v>
       </c>
       <c r="L2" t="n">
         <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
         <v>263.3879167614743</v>
       </c>
       <c r="O2" t="n">
-        <v>264.9930216683461</v>
+        <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
-        <v>266.3720910676141</v>
+        <v>268.4117974997384</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>180.3309306186853</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
         <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>166.9104890920976</v>
       </c>
       <c r="O3" t="n">
-        <v>181.3015543884808</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
-        <v>178.1759897207746</v>
+        <v>184.1458149818875</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>255.9772818167572</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>265.1715861506252</v>
+        <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
-        <v>259.4212368511231</v>
+        <v>257.2476482458454</v>
       </c>
       <c r="N5" t="n">
-        <v>258.0880505088102</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>125.6774978810001</v>
@@ -8304,16 +8304,16 @@
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>163.3726892003442</v>
+        <v>157.002365647822</v>
       </c>
       <c r="O6" t="n">
         <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>173.3862381384502</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>53.81818816105537</v>
+        <v>53.81818816105496</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605351</v>
+        <v>155.5744155597874</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>169.3425079555994</v>
       </c>
       <c r="M8" t="n">
-        <v>137.2640732086609</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>132.0718040433898</v>
+        <v>132.0718040433894</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>185.8047817831492</v>
+        <v>15.67159251783465</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.4261671052656</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>8.328260291752287</v>
+        <v>8.32826029175186</v>
       </c>
       <c r="L9" t="n">
-        <v>134.5411173874635</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>71.78725348462984</v>
+        <v>109.0465280602388</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>92.8755591235907</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>150.9515879477178</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.60103822001979</v>
+        <v>192.9589098559995</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>92.15795203867998</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>66.73277020259219</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.12774237125717</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>114.7699989900978</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.74112246243957</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.7699989900979</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>55.74112246243956</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>35.40333084624572</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>10.85445046951719</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>28.78901421003556</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708500.0561693648</v>
+        <v>708500.0561693647</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593906</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593905</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593907</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672605.3283593907</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
@@ -26320,37 +26320,37 @@
         <v>759463.6371244617</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.604713255</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="M2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26369,10 +26369,10 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543782</v>
+        <v>325486.3975543794</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756738</v>
+        <v>1098807.963756737</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>13208.50450573661</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184398</v>
+        <v>852.8104317183812</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031379</v>
+        <v>29443.81509031395</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299116</v>
+        <v>249845.7249299114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>5.145141455743994e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278904</v>
+        <v>306360.6503278902</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719688</v>
-      </c>
       <c r="H4" t="n">
+        <v>7507.368461719679</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719669</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719658</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.368461719676</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.368461719677</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719676</v>
       </c>
-      <c r="J4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719676</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.36846171967</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719708</v>
-      </c>
       <c r="P4" t="n">
-        <v>7507.368461719718</v>
+        <v>7507.368461719709</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.5257124148</v>
+        <v>52100.52571241486</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>290960.1333417168</v>
+        <v>290960.133341717</v>
       </c>
       <c r="C6" t="n">
         <v>320517.7436398393</v>
       </c>
       <c r="D6" t="n">
-        <v>75516.06352977829</v>
+        <v>75516.06352977724</v>
       </c>
       <c r="E6" t="n">
-        <v>-460827.2573291092</v>
+        <v>-460861.995254544</v>
       </c>
       <c r="F6" t="n">
-        <v>637980.7064276288</v>
+        <v>637945.9685021926</v>
       </c>
       <c r="G6" t="n">
-        <v>637980.7064276285</v>
+        <v>637945.9685021925</v>
       </c>
       <c r="H6" t="n">
-        <v>637980.7064276284</v>
+        <v>637945.9685021926</v>
       </c>
       <c r="I6" t="n">
-        <v>637980.7064276284</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="J6" t="n">
-        <v>624772.2019218921</v>
+        <v>624737.4639964561</v>
       </c>
       <c r="K6" t="n">
-        <v>637127.8959959098</v>
+        <v>637093.1580704745</v>
       </c>
       <c r="L6" t="n">
-        <v>608536.8913373149</v>
+        <v>608502.1534118787</v>
       </c>
       <c r="M6" t="n">
-        <v>388134.9814977169</v>
+        <v>388100.2435722817</v>
       </c>
       <c r="N6" t="n">
-        <v>637980.7064276286</v>
+        <v>637945.9685021926</v>
       </c>
       <c r="O6" t="n">
-        <v>637980.7064276286</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="P6" t="n">
-        <v>637980.7064276283</v>
+        <v>637945.9685021929</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075104</v>
+        <v>372.8820094075116</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,10 +26793,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653139</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883851</v>
+        <v>337.8607486883863</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341636</v>
+        <v>995.0934909341622</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846912</v>
+        <v>116.3368712846917</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546143</v>
+        <v>3.313583785545916</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846912</v>
+        <v>116.3368712846919</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27261,10 +27261,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846912</v>
+        <v>116.3368712846917</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.3933115466349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>374.8421291776601</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>316.1483963573978</v>
       </c>
       <c r="I2" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>93.57486856939362</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27436,7 +27436,7 @@
         <v>200.8555174238556</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.2695242750584</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27512,7 +27512,7 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>175.4553912751407</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.1999615822278</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>95.95122845149263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>39.94242826331492</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.20428827091266</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>124.9446868416198</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>177.2855390059461</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>277.9298992233338</v>
       </c>
       <c r="V4" t="n">
-        <v>243.7507768020828</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>175.2269211939606</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>353.0797277610888</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>151.2518041370232</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.22896370465668</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>180.4660379180963</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>190.2576974199557</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>197.5380718081886</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.7368656692447</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,7 +27710,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>57.71160912282181</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>41.68452591975693</v>
       </c>
       <c r="S6" t="n">
         <v>116.4876546407105</v>
@@ -27752,13 +27752,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>185.4167902720928</v>
+        <v>179.0042691688026</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>158.389188326145</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>92.81474068201064</v>
+        <v>131.6788080169213</v>
       </c>
       <c r="G7" t="n">
-        <v>114.1315082847361</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>169.119693879324</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>173.8794355044132</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>198.3413253432054</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>211.7971808069479</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>243.6705250964241</v>
+        <v>243.6705250964237</v>
       </c>
       <c r="H8" t="n">
-        <v>324.1229312460399</v>
+        <v>324.1229312460398</v>
       </c>
       <c r="I8" t="n">
-        <v>9.707532085890165</v>
+        <v>152.6847994490668</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157369</v>
+        <v>55.70610478157339</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782106</v>
+        <v>31.88381211503321</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5338757101359</v>
+        <v>46.40068644482157</v>
       </c>
       <c r="U8" t="n">
         <v>251.2257310555647</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>179.1077794520992</v>
+        <v>179.1077794520987</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.57530972300188</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27950,7 +27950,7 @@
         <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642492</v>
+        <v>61.78225762642483</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271182</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>53.69265790394186</v>
       </c>
       <c r="T9" t="n">
         <v>196.9319120283546</v>
       </c>
       <c r="U9" t="n">
-        <v>55.75542649357499</v>
+        <v>55.75542649357457</v>
       </c>
       <c r="V9" t="n">
-        <v>69.59956428078914</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>35.63979593816319</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.698790916623437</v>
+        <v>36.7617221589237</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>138.4822196818153</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.31856917756</v>
       </c>
       <c r="H10" t="n">
         <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416838</v>
+        <v>135.2292669416837</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712838</v>
+        <v>45.81978032712823</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116031</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160294</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.2983224298543</v>
+        <v>212.2983224298542</v>
       </c>
       <c r="T10" t="n">
         <v>225.0725641098958</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2823524375328</v>
+        <v>116.1491631722185</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>82.00445405851372</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397026</v>
+        <v>1.49902315339703</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972729</v>
+        <v>15.35187086972734</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133888</v>
+        <v>57.79109012133907</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656309</v>
+        <v>127.2277163656313</v>
       </c>
       <c r="K8" t="n">
-        <v>190.681366448927</v>
+        <v>190.6813664489277</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797013</v>
+        <v>236.5570962797021</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839257</v>
+        <v>263.2153492839265</v>
       </c>
       <c r="N8" t="n">
-        <v>267.474448818515</v>
+        <v>267.4744488185158</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369233</v>
+        <v>252.5685373369241</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374342</v>
+        <v>215.5614032374349</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564032</v>
+        <v>161.8776365564037</v>
       </c>
       <c r="R8" t="n">
-        <v>94.163013159576</v>
+        <v>94.16301315957629</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803476</v>
+        <v>34.15899010803486</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995482</v>
+        <v>6.561973853995504</v>
       </c>
       <c r="U8" t="n">
-        <v>0.119921852271762</v>
+        <v>0.1199218522717624</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067205</v>
+        <v>0.8020480957067231</v>
       </c>
       <c r="H9" t="n">
-        <v>7.74609608222017</v>
+        <v>7.746096082220195</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499016</v>
+        <v>27.61437522499025</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025644</v>
+        <v>75.77595627025669</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826067</v>
+        <v>129.5131786826071</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577246</v>
+        <v>174.1464516577251</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270931</v>
+        <v>203.2206951270938</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250562</v>
+        <v>208.5993422250569</v>
       </c>
       <c r="O9" t="n">
-        <v>190.827644946502</v>
+        <v>190.8276449465027</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319263</v>
+        <v>153.1560087319268</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660017</v>
+        <v>102.3807358660021</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993131</v>
+        <v>49.79733702993148</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227175</v>
+        <v>14.8976916022718</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467</v>
+        <v>3.23281666646701</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596847</v>
+        <v>0.05276632208596865</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987891</v>
+        <v>0.6724101808987913</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172875</v>
+        <v>5.978337790172894</v>
       </c>
       <c r="I10" t="n">
-        <v>20.2212079855745</v>
+        <v>20.22120798557457</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954439</v>
+        <v>47.53939978954455</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078657</v>
+        <v>78.12183738078683</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017091</v>
+        <v>99.96905544017123</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657984</v>
+        <v>105.4033522657987</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369939</v>
+        <v>102.8970961369942</v>
       </c>
       <c r="O10" t="n">
-        <v>95.0421226601307</v>
+        <v>95.04212266013101</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979534</v>
+        <v>81.3249549697956</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053407</v>
+        <v>56.30518342053425</v>
       </c>
       <c r="R10" t="n">
-        <v>30.2340068611401</v>
+        <v>30.23400686114019</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711798</v>
+        <v>11.71827560711802</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385735</v>
+        <v>2.873025318385744</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811581</v>
+        <v>0.03667691895811593</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>508.8976500257891</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7190218511039</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>251.886104915025</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34448,13 +34448,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760391</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>50.48273419507654</v>
@@ -34714,7 +34714,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="P2" t="n">
-        <v>48.44302776295223</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="O3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.51290893396361</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>51.62272937534495</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.62272937534495</v>
+        <v>45.25240582282281</v>
       </c>
       <c r="O6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>126.1659309637346</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7906813097140741</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="M8" t="n">
-        <v>170.1331892653139</v>
+        <v>32.86911605665378</v>
       </c>
       <c r="N8" t="n">
-        <v>170.1331892653139</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="O8" t="n">
-        <v>22.47032591523657</v>
+        <v>22.47032591523737</v>
       </c>
       <c r="P8" t="n">
-        <v>170.1331892653139</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>139.9981137872193</v>
+        <v>151.8869373418589</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.02936494399859</v>
+        <v>75.02936494399883</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>170.1331892653139</v>
+        <v>35.59207187785094</v>
       </c>
       <c r="M9" t="n">
-        <v>132.8739146897047</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172293</v>
+        <v>170.1331892653143</v>
       </c>
       <c r="O9" t="n">
-        <v>48.2314005020576</v>
+        <v>48.23140050205822</v>
       </c>
       <c r="P9" t="n">
-        <v>170.1331892653139</v>
+        <v>19.18160131759657</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>155.35787163598</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490372</v>
+        <v>55.85234555490398</v>
       </c>
       <c r="L10" t="n">
-        <v>127.559080700487</v>
+        <v>127.5590807004874</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276389</v>
+        <v>144.9872292276393</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162225</v>
+        <v>147.0292685162228</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741704</v>
+        <v>119.6272505741707</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468883</v>
+        <v>78.60351423468909</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>23.94570355317105</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>366.7636161037707</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>207.1227774066595</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>120.5443928316917</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961649</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
